--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3891616.148636441</v>
+        <v>3994413.568704096</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498526</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7218991.18352111</v>
+        <v>7185091.453257153</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>195.2020522024327</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>131.9809553984402</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75.72140963974806</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>26.29813691385282</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -865,10 +867,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -877,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>303.9797298768526</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>243.5142062564344</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734075887</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>41.45703344346393</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>28.4104992278263</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>321.245888213372</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>86.67656062487758</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734099341</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>58.73295398035708</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004739</v>
       </c>
       <c r="S10" t="n">
-        <v>15.90575875765415</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,10 +1353,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444131</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>44.75138076689272</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>134.9967644582763</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881311</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174129</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428166</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>18.16423677622432</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1844,19 +1846,19 @@
         <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187855</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2014,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>238.1282460566148</v>
       </c>
       <c r="X19" t="n">
-        <v>179.4744566894665</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2175,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>56.10180801516471</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>139.1584054594691</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>152.2221689967094</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>173.2052365248848</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2606,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,13 +2766,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>56.10180801516488</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652651</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>137.5999985461714</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652652</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>152.8546892482051</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>164.5981994227929</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972042</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652574</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808194</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972053</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>150.3341561773491</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808293</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>81.89830436238746</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4135,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>132.2740511637357</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>87.26519496153743</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.318139675982</v>
+        <v>2089.358425227294</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>1720.395908286882</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1362.130209680131</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>976.3419570818871</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912087</v>
@@ -4337,43 +4339,43 @@
         <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T2" t="n">
-        <v>3192.291725247109</v>
+        <v>3119.628073993391</v>
       </c>
       <c r="U2" t="n">
-        <v>3192.291725247109</v>
+        <v>2866.097597267227</v>
       </c>
       <c r="V2" t="n">
-        <v>3192.291725247109</v>
+        <v>2866.097597267227</v>
       </c>
       <c r="W2" t="n">
-        <v>2839.523069976995</v>
+        <v>2866.097597267227</v>
       </c>
       <c r="X2" t="n">
-        <v>2466.057311715915</v>
+        <v>2866.097597267227</v>
       </c>
       <c r="Y2" t="n">
-        <v>2075.917979740103</v>
+        <v>2475.958265291416</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1877.302436844564</v>
+        <v>652.2346852641118</v>
       </c>
       <c r="C4" t="n">
-        <v>1708.366253916658</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="D4" t="n">
-        <v>1708.366253916658</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E4" t="n">
-        <v>1708.366253916658</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F4" t="n">
-        <v>1708.366253916658</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134515</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>3235.775364366698</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>3235.775364366698</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>2946.672497492341</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>2691.988009286455</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W4" t="n">
-        <v>2402.570839249494</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="X4" t="n">
-        <v>2174.581288351476</v>
+        <v>652.2346852641118</v>
       </c>
       <c r="Y4" t="n">
-        <v>1953.788709207946</v>
+        <v>652.2346852641118</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2266.429418274562</v>
+        <v>1032.061124352529</v>
       </c>
       <c r="C5" t="n">
-        <v>1897.46690133415</v>
+        <v>663.0986074121172</v>
       </c>
       <c r="D5" t="n">
-        <v>1539.2012027274</v>
+        <v>663.0986074121172</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>663.0986074121172</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>417.124661698547</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927148</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
@@ -4571,46 +4573,46 @@
         <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993391</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2866.097597267227</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>2535.034709923656</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250373</v>
+        <v>2182.266054653542</v>
       </c>
       <c r="X5" t="n">
-        <v>2656.568750250373</v>
+        <v>1808.800296392462</v>
       </c>
       <c r="Y5" t="n">
-        <v>2266.429418274562</v>
+        <v>1418.660964416651</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992582</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410636</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886739</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533339</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>423.5412774992668</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C7" t="n">
-        <v>254.6050945713599</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>254.6050945713599</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>254.6050945713599</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>254.6050945713599</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279951</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658018</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1587.000001448044</v>
       </c>
       <c r="V7" t="n">
-        <v>1161.740577577775</v>
+        <v>1332.315513242158</v>
       </c>
       <c r="W7" t="n">
-        <v>872.3234075408143</v>
+        <v>1332.315513242158</v>
       </c>
       <c r="X7" t="n">
-        <v>644.3338566427969</v>
+        <v>1104.32596234414</v>
       </c>
       <c r="Y7" t="n">
-        <v>423.5412774992668</v>
+        <v>1104.32596234414</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1879.82957821044</v>
+        <v>1537.086630593157</v>
       </c>
       <c r="C8" t="n">
-        <v>1510.867061270028</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
-        <v>1152.601362663278</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>424.0701624477505</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>417.124661698547</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218335</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912085</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810546</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939505</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296683</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052365</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609167</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609167</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3238.053740169897</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2984.523263443733</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>2653.460376100163</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250373</v>
+        <v>2300.691720830048</v>
       </c>
       <c r="X8" t="n">
-        <v>2656.568750250373</v>
+        <v>1927.225962568968</v>
       </c>
       <c r="Y8" t="n">
-        <v>2266.429418274562</v>
+        <v>1537.086630593157</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4877,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218335</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031474</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>607.0615673062264</v>
+        <v>591.7811024121112</v>
       </c>
       <c r="C10" t="n">
-        <v>607.0615673062264</v>
+        <v>422.8449194842043</v>
       </c>
       <c r="D10" t="n">
-        <v>456.9449278938906</v>
+        <v>272.7282800718685</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>272.7282800718685</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>125.8383325739582</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>125.8383325739582</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218335</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218335</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.6347488791188</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279951</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764911</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760399</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581904</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088491</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846019</v>
       </c>
       <c r="S10" t="n">
-        <v>1821.397667858491</v>
+        <v>1645.778206672845</v>
       </c>
       <c r="T10" t="n">
-        <v>1599.631052428017</v>
+        <v>1645.778206672845</v>
       </c>
       <c r="U10" t="n">
-        <v>1310.528185553661</v>
+        <v>1356.675339798489</v>
       </c>
       <c r="V10" t="n">
-        <v>1055.843697347774</v>
+        <v>1101.990851592602</v>
       </c>
       <c r="W10" t="n">
-        <v>1055.843697347774</v>
+        <v>812.5736815556413</v>
       </c>
       <c r="X10" t="n">
-        <v>827.8541464497565</v>
+        <v>812.5736815556413</v>
       </c>
       <c r="Y10" t="n">
-        <v>607.0615673062264</v>
+        <v>591.7811024121112</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436268</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5066,16 +5068,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5084,7 +5086,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888042</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5224,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2310.602715440587</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2091.001250463528</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1801.926023807726</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1547.241535601839</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1257.824365564879</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>1029.834814666861</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>809.0422355233313</v>
       </c>
     </row>
     <row r="14">
@@ -5258,70 +5260,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191924</v>
+        <v>175.8744207939068</v>
       </c>
       <c r="L15" t="n">
-        <v>923.067041434951</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5546,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>150.8995423128893</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841098</v>
       </c>
       <c r="L18" t="n">
-        <v>943.510265746755</v>
+        <v>980.1499206998684</v>
       </c>
       <c r="M18" t="n">
-        <v>1540.888753373307</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5676,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5701,22 +5703,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.747069396417</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X19" t="n">
-        <v>1319.459739407057</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.667160263527</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="20">
@@ -5735,10 +5737,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362685</v>
@@ -5747,31 +5749,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5829,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>315.9123021921482</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L21" t="n">
-        <v>315.9123021921482</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>988.1395539230172</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>819.2033709951103</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>669.0867315827745</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>521.1736380003814</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>374.283690502471</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5911,10 +5913,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2306.399037661605</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2086.797572684546</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.987318831765</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W22" t="n">
-        <v>1618.570148794804</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.580597896787</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y22" t="n">
-        <v>1169.788018753257</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5984,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969308</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>3369.710724020924</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>3010.048074119839</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>2862.134980537446</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>2715.245033039535</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U25" t="n">
-        <v>2052.406834234631</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V25" t="n">
-        <v>1797.722346028744</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W25" t="n">
-        <v>1508.305175991783</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.315625093766</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>3160.164713532175</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1804.131916132773</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2356.04164637206</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>3175.341129796739</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>3006.404946868832</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>2708.375213874103</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>4095.188894705487</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>3805.771724668526</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>3577.782173770509</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>3356.989594626978</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531933</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656824</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115003</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942661</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580121</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345483</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384027</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580121</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345483</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384027</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1533.987177846418</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1244.570007809457</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,25 +7016,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>251.562654109227</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>746.8882603249857</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7391,37 +7393,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7488,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>251.562654109227</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>746.8882603249857</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951538</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2297.191819870655</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2077.590354893597</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1788.515128237795</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1788.515128237795</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.5380889459582</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>768.5380889459582</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>618.4214495336224</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>618.4214495336224</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817745</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.979132919728</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.1865537761979</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>2.345373895096259e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>103.8640922513196</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>46.0295215433683</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>268.0202376130198</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>48.39475227997616</v>
       </c>
       <c r="X19" t="n">
-        <v>46.23519869957062</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>109.4223302771041</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>41.8678805421755</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>13.30196929555947</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>112.9792378643594</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,13 +24654,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>196.0358353086631</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24847,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>80.98465480592338</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>99.28295407562288</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25318,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.9259388694759707</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25600,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>75.37549921168804</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>99.12798163925713</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>13.1469968591955</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>53.02951788468646</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>618778.7169977756</v>
+        <v>618778.7169977755</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>618778.7169977756</v>
+        <v>618778.7169977755</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>618778.7169977755</v>
+        <v>618778.7169977756</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>629200.0946284835</v>
+        <v>618778.7169977756</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>629200.0946284835</v>
+        <v>618778.7169977755</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>629200.0946284835</v>
+        <v>618778.7169977755</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>629200.0946284835</v>
+        <v>618778.7169977756</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>629200.0946284835</v>
+        <v>618778.7169977755</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642833</v>
@@ -26323,34 +26325,34 @@
         <v>807146.599690006</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.599690006</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.599690006</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.5996900066</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="J2" t="n">
         <v>807146.5996900063</v>
       </c>
       <c r="K2" t="n">
-        <v>821041.7698642849</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="L2" t="n">
-        <v>821041.769864285</v>
+        <v>807146.599690006</v>
       </c>
       <c r="M2" t="n">
-        <v>821041.769864284</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.769864284</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="O2" t="n">
-        <v>821041.7698642848</v>
+        <v>807146.599690006</v>
       </c>
       <c r="P2" t="n">
         <v>807146.5996900061</v>
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.461807356</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.7179936318</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551204</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820641</v>
+        <v>93403.78684820642</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820651</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820651</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685506</v>
+        <v>14216.7520768551</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685507</v>
@@ -26442,19 +26444,19 @@
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>22207.61133994853</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>22207.61133994857</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>22207.61133994853</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>22207.61133994853</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
-        <v>22207.61133994853</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26470,10 +26472,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-709040.7032729089</v>
+        <v>-709040.7032729087</v>
       </c>
       <c r="C6" t="n">
-        <v>619704.0424546837</v>
+        <v>619704.0424546839</v>
       </c>
       <c r="D6" t="n">
-        <v>619704.0424546836</v>
+        <v>619704.0424546835</v>
       </c>
       <c r="E6" t="n">
-        <v>366394.8559818886</v>
+        <v>366394.8559818878</v>
       </c>
       <c r="F6" t="n">
-        <v>691807.317789244</v>
+        <v>691807.3177892437</v>
       </c>
       <c r="G6" t="n">
         <v>691807.3177892442</v>
       </c>
       <c r="H6" t="n">
+        <v>691807.3177892441</v>
+      </c>
+      <c r="I6" t="n">
+        <v>691807.3177892438</v>
+      </c>
+      <c r="J6" t="n">
+        <v>474276.1153919668</v>
+      </c>
+      <c r="K6" t="n">
+        <v>691807.317789244</v>
+      </c>
+      <c r="L6" t="n">
+        <v>691807.3177892439</v>
+      </c>
+      <c r="M6" t="n">
+        <v>606752.289853732</v>
+      </c>
+      <c r="N6" t="n">
         <v>691807.3177892442</v>
       </c>
-      <c r="I6" t="n">
-        <v>691807.3177892445</v>
-      </c>
-      <c r="J6" t="n">
-        <v>474276.1153919667</v>
-      </c>
-      <c r="K6" t="n">
-        <v>676242.3246767892</v>
-      </c>
-      <c r="L6" t="n">
-        <v>695670.0426704211</v>
-      </c>
-      <c r="M6" t="n">
-        <v>610615.0147349082</v>
-      </c>
-      <c r="N6" t="n">
-        <v>695670.0426704201</v>
-      </c>
       <c r="O6" t="n">
-        <v>695670.0426704208</v>
+        <v>691807.3177892439</v>
       </c>
       <c r="P6" t="n">
         <v>691807.317789244</v>
@@ -26698,31 +26700,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022918</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973565</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973565</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973565</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>211.6739935392788</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>71.93701474117998</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.1105705421892</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>140.948684184775</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27585,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>77.95064019540916</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>163.361839485277</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>124.5687748155643</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,19 +27830,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>257.8013389777866</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>60.6844818588898</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>117.2414095147426</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28026,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>86.0220609339637</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983813</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>173.8632665737877</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28561,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28798,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28816,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28861,10 +28863,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,46 +31436,46 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780294</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J9" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233494</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,46 +31673,46 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780294</v>
@@ -31750,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>303.4297552732313</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460052</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>220.7280629601519</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>567.5882829286714</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32314,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716338</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>508.374771698973</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669242</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32551,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>211.0222436375122</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>567.5882829286714</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32783,25 +32785,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>301.1823051500298</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32812,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,7 +33031,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>295.9743940159484</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33260,31 +33262,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>384.4721492652009</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>193.1175412796309</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33418,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33497,31 +33499,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>189.0011860883002</v>
       </c>
       <c r="O33" t="n">
-        <v>537.6437863443698</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33734,28 +33736,28 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>597.1709559744729</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33904,7 +33906,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33968,10 +33970,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,19 +33982,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,10 +34210,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>146.0225991093089</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,16 +34222,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34442,19 +34444,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>399.1902208908131</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>618.3341264639751</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34466,7 +34468,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306614</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226396</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789354</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013311</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306614</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226396</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789354</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>160.8335108287869</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243185</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>82.88662398579289</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>425.4542490066531</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>57.65947400496711</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>369.8203919190988</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924747</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>73.18080466315317</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>425.4542490066531</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36431,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>159.0482712280115</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36460,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>161.9999866016181</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>245.9177694853267</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>61.77582919629761</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="O33" t="n">
-        <v>395.0475418999253</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>455.0369220524547</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37616,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,19 +37630,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>8.181160134949948</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>476.2000925419567</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38114,7 +38116,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3994413.568704096</v>
+        <v>3990400.958690104</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,10 +667,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>111.4702381038701</v>
       </c>
       <c r="F2" t="n">
-        <v>195.2020522024327</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>26.29813691385282</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>241.2617668068162</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>243.5142062564344</v>
+        <v>199.8294367171071</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734075887</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380414</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983813</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004739</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>28.4104992278263</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>192.8565489458257</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292606</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>86.67656062487758</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734099341</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>58.73295398035708</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>94.16217815422367</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004739</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428172</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>134.9967644582763</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560513</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142866</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>18.16423677622432</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187855</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695327</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>26.13627195705828</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>238.1282460566148</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>139.1584054594691</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>152.2221689967094</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>56.10180801516488</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>137.5999985461714</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3201,10 +3201,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>152.8546892482051</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5981994227929</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>150.3341561773491</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3906,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>81.89830436238746</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>87.26519496153743</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2089.358425227294</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="C2" t="n">
-        <v>1720.395908286882</v>
+        <v>1703.012869240228</v>
       </c>
       <c r="D2" t="n">
-        <v>1362.130209680131</v>
+        <v>1344.747170633478</v>
       </c>
       <c r="E2" t="n">
-        <v>976.3419570818871</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218338</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993391</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267227</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2866.097597267227</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2866.097597267227</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2866.097597267227</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y2" t="n">
-        <v>2475.958265291416</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218338</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>652.2346852641118</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>625.6709106036544</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>625.6709106036544</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621292</v>
+        <v>1683.595793738173</v>
       </c>
       <c r="W4" t="n">
-        <v>880.2242361621292</v>
+        <v>1394.178623701213</v>
       </c>
       <c r="X4" t="n">
-        <v>652.2346852641118</v>
+        <v>1166.189072803195</v>
       </c>
       <c r="Y4" t="n">
-        <v>652.2346852641118</v>
+        <v>945.3964936596652</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1032.061124352529</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C5" t="n">
-        <v>663.0986074121172</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="D5" t="n">
-        <v>663.0986074121172</v>
+        <v>1023.012981614817</v>
       </c>
       <c r="E5" t="n">
-        <v>663.0986074121172</v>
+        <v>1023.012981614817</v>
       </c>
       <c r="F5" t="n">
-        <v>417.124661698547</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927148</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810557</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993391</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267227</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923656</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653542</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.800296392462</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y5" t="n">
-        <v>1418.660964416651</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4634,46 +4634,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158125</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410636</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886739</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533339</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>922.6774975139006</v>
+        <v>463.6594280995009</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>294.723245171594</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>144.6066057592583</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279951</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415546</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1587.000001448044</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1332.315513242158</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>1332.315513242158</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X7" t="n">
-        <v>1104.32596234414</v>
+        <v>866.1004720732708</v>
       </c>
       <c r="Y7" t="n">
-        <v>1104.32596234414</v>
+        <v>645.3078929297407</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1537.086630593157</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C8" t="n">
-        <v>1168.124113652745</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D8" t="n">
-        <v>809.8584150459947</v>
+        <v>654.0504646744046</v>
       </c>
       <c r="E8" t="n">
-        <v>424.0701624477505</v>
+        <v>268.2622120761603</v>
       </c>
       <c r="F8" t="n">
-        <v>417.124661698547</v>
+        <v>261.3167113269569</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839476</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218335</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912085</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810546</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939505</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052365</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609167</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609167</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3238.053740169897</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2984.523263443733</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>2653.460376100163</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W8" t="n">
-        <v>2300.691720830048</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>1927.225962568968</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y8" t="n">
-        <v>1537.086630593157</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
         <v>618.1564155387305</v>
@@ -4871,28 +4871,28 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064582</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218335</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031474</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158125</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4901,16 +4901,16 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>591.7811024121112</v>
+        <v>752.7622949738575</v>
       </c>
       <c r="C10" t="n">
-        <v>422.8449194842043</v>
+        <v>752.7622949738575</v>
       </c>
       <c r="D10" t="n">
-        <v>272.7282800718685</v>
+        <v>602.6456555615217</v>
       </c>
       <c r="E10" t="n">
-        <v>272.7282800718685</v>
+        <v>454.7325619791286</v>
       </c>
       <c r="F10" t="n">
-        <v>125.8383325739582</v>
+        <v>307.8426144812182</v>
       </c>
       <c r="G10" t="n">
-        <v>125.8383325739582</v>
+        <v>307.8426144812182</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218335</v>
+        <v>161.625427699076</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218335</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791188</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279951</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764911</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760399</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581904</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088491</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846019</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672845</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672845</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798489</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592602</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W10" t="n">
-        <v>812.5736815556413</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>812.5736815556413</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y10" t="n">
-        <v>591.7811024121112</v>
+        <v>934.4107598040972</v>
       </c>
     </row>
     <row r="11">
@@ -5032,40 +5032,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5074,16 +5074,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>1520.445529061503</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2310.602715440587</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2091.001250463528</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1801.926023807726</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1547.241535601839</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1257.824365564879</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1029.834814666861</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>809.0422355233313</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K15" t="n">
-        <v>175.8744207939068</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L15" t="n">
-        <v>671.2000270096656</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.5811134804959</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>615.644930552589</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402533</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578601</v>
@@ -5433,55 +5433,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1959.113366595131</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y16" t="n">
-        <v>966.2295783107356</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="17">
@@ -5491,55 +5491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J18" t="n">
-        <v>150.8995423128893</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K18" t="n">
-        <v>484.8243144841098</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L18" t="n">
-        <v>980.1499206998684</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W19" t="n">
-        <v>1479.814952498107</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X19" t="n">
-        <v>1251.82540160009</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="20">
@@ -5743,37 +5743,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.067041434951</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5913,10 +5913,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2306.399037661605</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2086.797572684546</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1797.722346028744</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2716.927329289434</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>3212.252935505192</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>3369.710724020924</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>3997.308687575531</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>3997.308687575531</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P24" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3160.164713532175</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>3160.164713532175</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>3010.048074119839</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>2862.134980537446</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>2715.245033039535</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>3160.164713532175</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,10 +6223,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3175.341129796739</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>3006.404946868832</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>2856.288307456496</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2708.375213874103</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2561.485266376193</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>4095.188894705487</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3805.771724668526</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3577.782173770509</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>3356.989594626978</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,19 +6539,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
         <v>1896.176478190825</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.777212765616</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.506784258106</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.822296052219</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.405126015258</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.415575117241</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1533.987177846418</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1244.570007809457</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>1016.58045691144</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>1016.58045691144</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>802.9288273958734</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>633.9926444679666</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>483.8760050556308</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>483.8760050556308</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>483.8760050556308</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.5772922261132</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>2197.062545487567</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1942.37805728168</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1652.96088724472</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>868.6673633290469</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>699.73118040114</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888043</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2297.191819870655</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2077.590354893597</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1788.515128237795</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1788.515128237795</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1499.097958200834</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1271.108407302817</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>1050.315828159287</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>264.0500279773688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>264.0500279773688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>264.0500279773688</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>2.345373895096259e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>46.0295215433683</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>138.4949402405086</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>268.0202376130198</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>48.39475227997616</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.8678805421755</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>13.30196929555947</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,19 +24654,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>196.0358353086631</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.98465480592338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>99.28295407562288</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9259388694759707</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>75.37549921168804</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>99.12798163925713</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>53.02951788468646</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>618778.7169977755</v>
+        <v>618778.7169977756</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>618778.7169977756</v>
+        <v>618778.7169977755</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>618778.7169977756</v>
+        <v>618778.7169977755</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>618778.7169977756</v>
+        <v>618778.7169977755</v>
       </c>
     </row>
     <row r="15">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900066</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="I2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="J2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.599690006</v>
       </c>
       <c r="K2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="M2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="N2" t="n">
         <v>807146.5996900063</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="P2" t="n">
         <v>807146.5996900061</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.461807356</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551204</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820642</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820651</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820651</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
+        <v>14216.75207685515</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14216.75207685514</v>
+      </c>
+      <c r="H4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="G4" t="n">
-        <v>14216.7520768551</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14216.75207685507</v>
-      </c>
       <c r="I4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685512</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
@@ -26450,7 +26450,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26472,10 +26472,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-709040.7032729087</v>
+        <v>-709040.7032729089</v>
       </c>
       <c r="C6" t="n">
         <v>619704.0424546839</v>
       </c>
       <c r="D6" t="n">
-        <v>619704.0424546835</v>
+        <v>619704.0424546836</v>
       </c>
       <c r="E6" t="n">
-        <v>366394.8559818878</v>
+        <v>366047.4767275319</v>
       </c>
       <c r="F6" t="n">
-        <v>691807.3177892437</v>
+        <v>691459.9385348872</v>
       </c>
       <c r="G6" t="n">
-        <v>691807.3177892442</v>
+        <v>691459.9385348872</v>
       </c>
       <c r="H6" t="n">
-        <v>691807.3177892441</v>
+        <v>691459.9385348869</v>
       </c>
       <c r="I6" t="n">
-        <v>691807.3177892438</v>
+        <v>691459.9385348869</v>
       </c>
       <c r="J6" t="n">
-        <v>474276.1153919668</v>
+        <v>473928.7361376093</v>
       </c>
       <c r="K6" t="n">
-        <v>691807.317789244</v>
+        <v>691459.9385348872</v>
       </c>
       <c r="L6" t="n">
-        <v>691807.3177892439</v>
+        <v>691459.9385348873</v>
       </c>
       <c r="M6" t="n">
-        <v>606752.289853732</v>
+        <v>606404.9105993754</v>
       </c>
       <c r="N6" t="n">
-        <v>691807.3177892442</v>
+        <v>691459.9385348873</v>
       </c>
       <c r="O6" t="n">
-        <v>691807.3177892439</v>
+        <v>691459.9385348874</v>
       </c>
       <c r="P6" t="n">
-        <v>691807.317789244</v>
+        <v>691459.938534887</v>
       </c>
     </row>
   </sheetData>
@@ -26700,19 +26700,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26749,7 +26749,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022918</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973565</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973565</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973565</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,10 +27387,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>270.4601319683917</v>
       </c>
       <c r="F2" t="n">
-        <v>211.6739935392788</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,22 +27539,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>140.948684184775</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>10.87587651701182</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>163.361839485277</v>
+        <v>207.0466090246044</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>69.12041821276503</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>257.8013389777866</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>218.0651767076277</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>117.2414095147426</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>86.0220609339637</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983813</v>
+        <v>2.19024225561445</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="T17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28863,10 +28863,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974798</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003807</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781687</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970247</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,46 +31436,46 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098818</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780294</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974798</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003807</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781687</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233494</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970247</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,46 +31673,46 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098818</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780294</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>444.22749159829</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>383.9182138639289</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>220.7280629601519</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,10 +32311,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>184.4971006716338</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32326,13 +32326,13 @@
         <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669242</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,40 +32548,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>567.5882829286714</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32785,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>301.1823051500298</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33259,22 +33259,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>384.4721492652009</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
@@ -33420,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33496,10 +33496,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33511,13 +33511,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33657,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33733,19 +33733,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33754,13 +33754,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>211.3773391483997</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33906,7 +33906,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33973,7 +33973,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33982,13 +33982,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>560.1612034965808</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34377,7 +34377,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882187</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597696</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306614</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226396</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789354</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882187</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597696</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013311</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306614</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226396</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789354</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762717</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>249.9438064495987</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>82.88662398579289</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>57.65947400496711</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678995</v>
@@ -35974,13 +35974,13 @@
         <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924747</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>425.4542490066531</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>159.0482712280115</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>245.9177694853267</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37159,13 +37159,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37402,13 +37402,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>71.39556506237817</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37554,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37630,13 +37630,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>418.0271695745625</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3990400.958690104</v>
+        <v>3992161.488992888</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>111.4702381038701</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>90.98010614281331</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>199.8294367171071</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>87.56115536271582</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>77.31354443380414</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>71.67037196991713</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,10 +1147,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>192.8565489458257</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>256.3954768515562</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>72.89138480951667</v>
       </c>
       <c r="I10" t="n">
-        <v>94.16217815422367</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.272891771006</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695349</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428172</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>31.83025205763902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.33703994142866</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206814</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695327</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>26.13627195705828</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>60.25690685266593</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>27.77749086859481</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3906,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2071.97538618064</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C2" t="n">
-        <v>1703.012869240228</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D2" t="n">
-        <v>1344.747170633478</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,31 +4327,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2332.8449443368</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.97538618064</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="Y2" t="n">
-        <v>2071.97538618064</v>
+        <v>1959.379186075721</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4485,7 +4485,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221567</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="C5" t="n">
-        <v>1381.278680221567</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>1023.012981614817</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>1023.012981614817</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3126.869541658774</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3126.869541658774</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2795.806654315204</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2443.037999045089</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261501</v>
+        <v>2069.572240784009</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285689</v>
+        <v>1679.432908808198</v>
       </c>
     </row>
     <row r="6">
@@ -4622,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>463.6594280995009</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C7" t="n">
-        <v>294.723245171594</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D7" t="n">
-        <v>144.6066057592583</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971288</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>866.1004720732708</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>645.3078929297407</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221567</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281155</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="D8" t="n">
-        <v>654.0504646744046</v>
+        <v>1133.303650087722</v>
       </c>
       <c r="E8" t="n">
-        <v>268.2622120761603</v>
+        <v>747.5153974894774</v>
       </c>
       <c r="F8" t="n">
-        <v>261.3167113269569</v>
+        <v>740.569896740274</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>325.4974465852704</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.0178522615</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285688</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064582</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4904,31 +4904,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738575</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>752.7622949738575</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="D10" t="n">
-        <v>602.6456555615217</v>
+        <v>602.6456555615222</v>
       </c>
       <c r="E10" t="n">
-        <v>454.7325619791286</v>
+        <v>454.7325619791291</v>
       </c>
       <c r="F10" t="n">
-        <v>307.8426144812182</v>
+        <v>307.8426144812187</v>
       </c>
       <c r="G10" t="n">
-        <v>307.8426144812182</v>
+        <v>140.1397778559376</v>
       </c>
       <c r="H10" t="n">
-        <v>161.625427699076</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882605</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
         <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947627</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040972</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5035,13 +5035,13 @@
         <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075798</v>
@@ -5050,10 +5050,10 @@
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068008</v>
@@ -5068,10 +5068,10 @@
         <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466572</v>
@@ -5083,10 +5083,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516141</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266882</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836004</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556936</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433578</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>267.6802639609647</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>267.6802639609647</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>267.6802639609647</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>125.9684328031628</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797183</v>
@@ -5202,49 +5202,49 @@
         <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138402</v>
       </c>
     </row>
     <row r="14">
@@ -5266,10 +5266,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797183</v>
@@ -5278,13 +5278,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5293,10 +5293,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
@@ -5308,19 +5308,19 @@
         <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273895</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>579.155464951614</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167372</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.45752234853</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797183</v>
@@ -5439,49 +5439,49 @@
         <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648818</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138402</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.50206557031</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,16 +5509,16 @@
         <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5530,37 +5530,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="18">
@@ -5582,31 +5582,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H18" t="n">
         <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516141</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348531</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098237</v>
+        <v>580.0655846733345</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819168</v>
+        <v>411.1294017454276</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695811</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>516.389687887188</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892776</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>982.5066286471043</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>761.7140495035742</v>
       </c>
     </row>
     <row r="20">
@@ -5734,37 +5734,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5840,10 +5840,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6408,22 +6408,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
         <v>974.1018203925706</v>
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6882,16 +6882,16 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
         <v>1627.520291377266</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>263.586565790213</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>121.8747346324111</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>49.43558426092655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.4949402405086</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.22910392194222</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>114.1584408891656</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>53.48834544997072</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>618778.7169977756</v>
+        <v>618778.7169977755</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>618778.7169977755</v>
+        <v>618778.7169977756</v>
       </c>
     </row>
     <row r="14">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="F2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900066</v>
+        <v>807146.599690006</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="J2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="L2" t="n">
         <v>807146.5996900063</v>
@@ -26349,13 +26349,13 @@
         <v>807146.5996900062</v>
       </c>
       <c r="N2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="O2" t="n">
         <v>807146.5996900063</v>
       </c>
-      <c r="O2" t="n">
-        <v>807146.5996900065</v>
-      </c>
       <c r="P2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900063</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073547</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>1.767800767993322e-10</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820635</v>
       </c>
       <c r="C4" t="n">
         <v>93403.78684820636</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685513</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685515</v>
+        <v>14216.75207685513</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685514</v>
+        <v>14216.75207685513</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685512</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
@@ -26450,7 +26450,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-709040.7032729089</v>
+        <v>-709040.703272909</v>
       </c>
       <c r="C6" t="n">
-        <v>619704.0424546839</v>
+        <v>619704.0424546835</v>
       </c>
       <c r="D6" t="n">
-        <v>619704.0424546836</v>
+        <v>619704.0424546835</v>
       </c>
       <c r="E6" t="n">
-        <v>366047.4767275319</v>
+        <v>366360.1180564537</v>
       </c>
       <c r="F6" t="n">
-        <v>691459.9385348872</v>
+        <v>691772.579863808</v>
       </c>
       <c r="G6" t="n">
-        <v>691459.9385348872</v>
+        <v>691772.5798638079</v>
       </c>
       <c r="H6" t="n">
-        <v>691459.9385348869</v>
+        <v>691772.5798638084</v>
       </c>
       <c r="I6" t="n">
-        <v>691459.9385348869</v>
+        <v>691772.5798638082</v>
       </c>
       <c r="J6" t="n">
-        <v>473928.7361376093</v>
+        <v>474241.3774665309</v>
       </c>
       <c r="K6" t="n">
-        <v>691459.9385348872</v>
+        <v>691772.5798638087</v>
       </c>
       <c r="L6" t="n">
-        <v>691459.9385348873</v>
+        <v>691772.5798638086</v>
       </c>
       <c r="M6" t="n">
-        <v>606404.9105993754</v>
+        <v>606717.5519282967</v>
       </c>
       <c r="N6" t="n">
-        <v>691459.9385348873</v>
+        <v>691772.5798638084</v>
       </c>
       <c r="O6" t="n">
-        <v>691459.9385348874</v>
+        <v>691772.5798638086</v>
       </c>
       <c r="P6" t="n">
-        <v>691459.938534887</v>
+        <v>691772.5798638086</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
+        <v>1367.975500341673</v>
+      </c>
+      <c r="F3" t="n">
         <v>1367.975500341674</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>270.4601319683917</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>258.2608625745997</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27627,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>207.0466090246044</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>116.3568147769043</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>69.12041821276503</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>24.68204843992096</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>218.0651767076277</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>38.21228753576429</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>71.86363010480412</v>
       </c>
       <c r="I10" t="n">
-        <v>2.19024225561445</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28089,13 +28089,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.54335762560769e-12</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28152,10 +28152,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28341,10 +28341,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,13 +28377,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28563,13 +28563,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.54335762560769e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28614,13 +28614,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067231</v>
@@ -31764,28 +31764,28 @@
         <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>444.22749159829</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565776</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31916,7 +31916,7 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
@@ -31931,13 +31931,13 @@
         <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31992,7 +31992,7 @@
         <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
         <v>212.0155798067231</v>
@@ -32001,28 +32001,28 @@
         <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558027</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32153,7 +32153,7 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
@@ -32168,13 +32168,13 @@
         <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32560,13 +32560,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34377,7 +34377,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>302.0934576762717</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121332</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899073</v>
@@ -35585,7 +35585,7 @@
         <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998983</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774872</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113583</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899073</v>
@@ -35822,7 +35822,7 @@
         <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998983</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>35.97859357997671</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
